--- a/public/20220420_SUGGEREIX_Taula_Trens.xlsx
+++ b/public/20220420_SUGGEREIX_Taula_Trens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="830" documentId="8_{DDC3622A-7B38-4093-A101-9B2AEF33061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB8A30D-6839-40E7-925F-AE955145191D}"/>
+  <xr:revisionPtr revIDLastSave="956" documentId="8_{DDC3622A-7B38-4093-A101-9B2AEF33061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{178362C4-02C0-451A-A303-C12239B3093F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="568">
   <si>
     <t>Revisió de la taula PT4 Trens_dades_originals</t>
   </si>
@@ -1692,6 +1692,54 @@
   </si>
   <si>
     <t>Addició FQ_D_MF_UF_OI (Cas 128 PT1)</t>
+  </si>
+  <si>
+    <t>FS_MF_UF_OI</t>
+  </si>
+  <si>
+    <t>FS_MF_UF_OI_Cl2</t>
+  </si>
+  <si>
+    <t>FS_MF_UF_OI_ClO2</t>
+  </si>
+  <si>
+    <t>FS_MF_UF_OI_Cloramines</t>
+  </si>
+  <si>
+    <t>FS_MF_UF_OI_NaClO</t>
+  </si>
+  <si>
+    <t>FS_MF_UF_OI_UV</t>
+  </si>
+  <si>
+    <t>FS_MF_UF_OI_UV_Cl2</t>
+  </si>
+  <si>
+    <t>Addició FS_MF_UF_OI_UV_Cl2 (Tossa)</t>
+  </si>
+  <si>
+    <t>FQ_D_FS_CAG_UV_Cl2</t>
+  </si>
+  <si>
+    <t>FQ_D_FS_CAG</t>
+  </si>
+  <si>
+    <t>FQ_D_FS_CAG_Cl2</t>
+  </si>
+  <si>
+    <t>FQ_D_FS_CAG_ClO2</t>
+  </si>
+  <si>
+    <t>FQ_D_FS_CAG_Cloramines</t>
+  </si>
+  <si>
+    <t>FQ_D_FS_CAG_NaClO</t>
+  </si>
+  <si>
+    <t>FQ_D_FS_CAG_UV</t>
+  </si>
+  <si>
+    <t>Addició FQ_D_FS_CAG_UV (Port de la Selva: Cas 59 = Cas 151)</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1899,19 +1947,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1920,10 +1959,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,9 +1985,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2227,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C18773-8459-41EE-8D67-C35649A316FB}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2459,13 +2498,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="28">
         <v>94</v>
       </c>
     </row>
@@ -2520,7 +2559,7 @@
       <c r="B30" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="24"/>
@@ -2532,7 +2571,7 @@
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2760,13 +2799,23 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="28" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -2777,661 +2826,661 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264128DD-862F-4D36-AD1B-9B005FDF013D}">
-  <dimension ref="A1:AM231"/>
+  <dimension ref="A1:AM245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="10.42578125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="23" style="3" customWidth="1"/>
-    <col min="27" max="27" width="23.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.42578125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" style="3" bestFit="1"/>
-    <col min="34" max="34" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="25.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="25" width="10.42578125" style="25" customWidth="1"/>
+    <col min="26" max="26" width="23" style="25" customWidth="1"/>
+    <col min="27" max="27" width="23.7109375" style="25" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="25" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.42578125" style="25" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="25" bestFit="1"/>
+    <col min="34" max="34" width="7.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="25" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>3</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <v>5</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="4">
         <v>6</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="4">
         <v>7</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="4">
         <v>8</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="4">
         <v>9</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="4">
         <v>10</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="4">
         <v>11</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="4">
         <v>12</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="4">
         <v>13</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="4">
         <v>14</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="4">
         <v>15</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="4">
         <v>16</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="4">
         <v>17</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="4">
         <v>18</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="4">
         <v>19</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="25">
         <v>23</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="25">
         <v>28</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="25">
         <v>29</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="25">
         <v>46</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="25">
         <v>72</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="25">
         <v>73</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="25">
         <v>77</v>
       </c>
       <c r="R5" s="25">
         <v>78</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="25">
         <v>80</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="25">
         <v>84</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="25">
         <v>85</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="25">
         <v>111</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="25">
         <v>115</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="25">
         <v>130</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="25">
         <v>135</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="25">
         <v>144</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="25">
         <v>155</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="25">
         <v>158</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="25">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="25">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="25">
         <v>23</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="25">
         <v>28</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="25">
         <v>29</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="25">
         <v>46</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="25">
         <v>72</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="25">
         <v>73</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="25">
         <v>77</v>
       </c>
       <c r="R6" s="25">
         <v>78</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="25">
         <v>80</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="25">
         <v>84</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="25">
         <v>85</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="25">
         <v>111</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="25">
         <v>115</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="25">
         <v>130</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="25">
         <v>135</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="25">
         <v>144</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="25">
         <v>155</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="25">
         <v>158</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="25">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="25">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="25">
         <v>23</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="25">
         <v>28</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="25">
         <v>29</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="25">
         <v>46</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="25">
         <v>72</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="25">
         <v>73</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="25">
         <v>77</v>
       </c>
       <c r="R7" s="25">
         <v>78</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="25">
         <v>80</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="25">
         <v>84</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="25">
         <v>85</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="25">
         <v>111</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="25">
         <v>115</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="25">
         <v>130</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="25">
         <v>135</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="25">
         <v>144</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="25">
         <v>155</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="25">
         <v>158</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="25">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="25">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="25">
         <v>23</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="25">
         <v>28</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="25">
         <v>29</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="25">
         <v>46</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="25">
         <v>72</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="25">
         <v>73</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="25">
         <v>77</v>
       </c>
       <c r="R8" s="25">
         <v>78</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="25">
         <v>80</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="25">
         <v>84</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="25">
         <v>85</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="25">
         <v>111</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="25">
         <v>115</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="25">
         <v>130</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="25">
         <v>135</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="25">
         <v>144</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="25">
         <v>155</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="25">
         <v>158</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="25">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="25">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="25">
         <v>23</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="25">
         <v>28</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="25">
         <v>29</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="25">
         <v>46</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="25">
         <v>72</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="25">
         <v>73</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="25">
         <v>77</v>
       </c>
       <c r="R9" s="25">
         <v>78</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="25">
         <v>80</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="25">
         <v>84</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="25">
         <v>85</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="25">
         <v>111</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="25">
         <v>115</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="25">
         <v>130</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="25">
         <v>135</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="25">
         <v>144</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="25">
         <v>155</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="25">
         <v>158</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="25">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="25">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="25">
         <v>23</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="25">
         <v>28</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="25">
         <v>29</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="25">
         <v>46</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="25">
         <v>72</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="25">
         <v>73</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="25">
         <v>77</v>
       </c>
       <c r="R10" s="25">
         <v>78</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="25">
         <v>80</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="25">
         <v>84</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="25">
         <v>85</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="25">
         <v>111</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="25">
         <v>115</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="25">
         <v>130</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="25">
         <v>135</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="25">
         <v>144</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="25">
         <v>155</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="25">
         <v>158</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="25">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="26">
         <v>7</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="26">
         <v>23</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="26">
         <v>28</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="26">
         <v>29</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="26">
         <v>46</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="26">
         <v>72</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="26">
         <v>73</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="26">
         <v>77</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="26">
         <v>78</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="26">
         <v>80</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="26">
         <v>84</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="26">
         <v>85</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="26">
         <v>111</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="26">
         <v>115</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="26">
         <v>130</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="26">
         <v>135</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="26">
         <v>144</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="26">
         <v>155</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11" s="26">
         <v>158</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC11" s="26">
         <v>162</v>
       </c>
     </row>
@@ -3439,7 +3488,7 @@
       <c r="A12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="25">
         <v>8</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -3455,172 +3504,172 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="26">
         <v>9</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="25">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="25">
         <v>117</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="25">
         <v>119</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="25">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="25">
         <v>117</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="25">
         <v>119</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="25">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="25">
         <v>117</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="25">
         <v>119</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="25">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="25">
         <v>117</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="25">
         <v>119</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="25">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="26">
         <v>14</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="26">
         <v>117</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="26">
         <v>119</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="26">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="25">
         <v>15</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="26">
         <v>16</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="26" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3628,7 +3677,7 @@
       <c r="A21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="25">
         <v>17</v>
       </c>
       <c r="D21" s="29" t="s">
@@ -3702,138 +3751,138 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="25">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="25">
         <v>24</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="25">
         <v>30</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="25">
         <v>35</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="25">
         <v>68</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="25">
         <v>81</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="25">
         <v>82</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="25">
         <v>83</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="25">
         <v>86</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="25">
         <v>87</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="25">
         <v>88</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="25">
         <v>108</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="25">
         <v>118</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="25">
         <v>134</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="25">
         <v>136</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="25">
         <v>137</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="25">
         <v>138</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="25">
         <v>140</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="25">
         <v>143</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="25">
         <v>152</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="25">
         <v>154</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE22" s="25">
         <v>156</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF22" s="25">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="25">
         <v>19</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="25">
         <v>24</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="25">
         <v>30</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="25">
         <v>35</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="25">
         <v>68</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="25">
         <v>81</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="25">
         <v>82</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="25">
         <v>83</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="25">
         <v>86</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="25">
         <v>87</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="25">
         <v>88</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="25">
         <v>108</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="25">
         <v>118</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="25">
         <v>134</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="25">
         <v>136</v>
       </c>
       <c r="Y23" s="29">
@@ -3851,7 +3900,7 @@
       <c r="AC23" s="29">
         <v>152</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="25">
         <v>154</v>
       </c>
       <c r="AE23" s="29">
@@ -3862,138 +3911,138 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="25">
         <v>20</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="25">
         <v>24</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="25">
         <v>30</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="25">
         <v>35</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="25">
         <v>68</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="25">
         <v>81</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="25">
         <v>82</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="25">
         <v>83</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="25">
         <v>86</v>
       </c>
       <c r="S24" s="29">
         <v>87</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="25">
         <v>88</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="25">
         <v>108</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="25">
         <v>118</v>
       </c>
       <c r="W24" s="29">
         <v>134</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="25">
         <v>136</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="25">
         <v>137</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="25">
         <v>138</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="25">
         <v>140</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="25">
         <v>143</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="25">
         <v>152</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="25">
         <v>154</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE24" s="25">
         <v>156</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF24" s="25">
         <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="25">
         <v>21</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="25">
         <v>24</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="25">
         <v>30</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="25">
         <v>35</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="25">
         <v>68</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="25">
         <v>81</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="25">
         <v>82</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="25">
         <v>83</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="25">
         <v>86</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="25">
         <v>87</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="25">
         <v>88</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="25">
         <v>108</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="25">
         <v>118</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="25">
         <v>134</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="25">
         <v>136</v>
       </c>
       <c r="Y25" s="29">
@@ -4011,7 +4060,7 @@
       <c r="AC25" s="29">
         <v>152</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25" s="25">
         <v>154</v>
       </c>
       <c r="AE25" s="29">
@@ -4022,199 +4071,199 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="25">
         <v>22</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="25">
         <v>24</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="25">
         <v>30</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="25">
         <v>35</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="25">
         <v>68</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="25">
         <v>81</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="25">
         <v>82</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="25">
         <v>83</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="25">
         <v>86</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="25">
         <v>87</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="25">
         <v>88</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="25">
         <v>108</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="25">
         <v>118</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="25">
         <v>134</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="25">
         <v>136</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="25">
         <v>137</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="25">
         <v>138</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="25">
         <v>140</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="25">
         <v>143</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="25">
         <v>152</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="25">
         <v>154</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AE26" s="25">
         <v>156</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AF26" s="25">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="26">
         <v>23</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="26">
         <v>24</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="26">
         <v>30</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="26">
         <v>35</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="26">
         <v>68</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="26">
         <v>81</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="26">
         <v>82</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="26">
         <v>83</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="26">
         <v>86</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="26">
         <v>87</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="26">
         <v>88</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="26">
         <v>108</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V27" s="26">
         <v>118</v>
       </c>
-      <c r="W27" s="12">
+      <c r="W27" s="26">
         <v>134</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="26">
         <v>136</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Y27" s="26">
         <v>137</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z27" s="26">
         <v>138</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA27" s="26">
         <v>140</v>
       </c>
-      <c r="AB27" s="12">
+      <c r="AB27" s="26">
         <v>143</v>
       </c>
-      <c r="AC27" s="12">
+      <c r="AC27" s="26">
         <v>152</v>
       </c>
-      <c r="AD27" s="12">
+      <c r="AD27" s="26">
         <v>154</v>
       </c>
-      <c r="AE27" s="12">
+      <c r="AE27" s="26">
         <v>156</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27" s="26">
         <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="25">
         <v>24</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="26">
         <v>25</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="26" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4222,7 +4271,7 @@
       <c r="A30" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="25">
         <v>26</v>
       </c>
       <c r="D30" s="29" t="s">
@@ -4245,181 +4294,181 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="25">
         <v>27</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="25" t="s">
         <v>71</v>
       </c>
       <c r="K31" s="25">
         <v>16</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="25">
         <v>90</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="25">
         <v>99</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="25">
         <v>100</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="25">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="25">
         <v>28</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="25" t="s">
         <v>73</v>
       </c>
       <c r="K32" s="25">
         <v>16</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="25">
         <v>90</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="25">
         <v>99</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="25">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="25">
         <v>103</v>
       </c>
       <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="25">
         <v>29</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="25" t="s">
         <v>75</v>
       </c>
       <c r="K33" s="25">
         <v>16</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="25">
         <v>90</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="25">
         <v>99</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="25">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="25">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="25">
         <v>30</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="25" t="s">
         <v>77</v>
       </c>
       <c r="K34" s="25">
         <v>16</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="25">
         <v>90</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="25">
         <v>99</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="25">
         <v>100</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="25">
         <v>103</v>
       </c>
       <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="25">
         <v>31</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="25" t="s">
         <v>79</v>
       </c>
       <c r="K35" s="25">
         <v>16</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="25">
         <v>90</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="25">
         <v>99</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="25">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="25">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="26">
         <v>32</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="26">
         <v>16</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="26">
         <v>90</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="26">
         <v>99</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="26">
         <v>100</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="26">
         <v>103</v>
       </c>
     </row>
@@ -4427,7 +4476,7 @@
       <c r="A37" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="25">
         <v>33</v>
       </c>
       <c r="D37" s="29" t="s">
@@ -4440,55 +4489,55 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="26">
         <v>34</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="25">
         <v>35</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="25">
         <v>30</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="25">
         <v>43</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="25">
         <v>63</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="25">
         <v>71</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="25">
         <v>92</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="25">
         <v>123</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="25">
         <v>125</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39" s="25">
         <v>131</v>
       </c>
       <c r="S39" s="25">
@@ -4496,40 +4545,40 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="25">
         <v>36</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="25">
         <v>30</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="25">
         <v>43</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="25">
         <v>63</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="25">
         <v>71</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="25">
         <v>92</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="25">
         <v>123</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="25">
         <v>125</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="25">
         <v>131</v>
       </c>
       <c r="S40" s="25">
@@ -4537,40 +4586,40 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="25">
         <v>37</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="25">
         <v>30</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="25">
         <v>43</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="25">
         <v>63</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="25">
         <v>71</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="25">
         <v>92</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="25">
         <v>123</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="25">
         <v>125</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="25">
         <v>131</v>
       </c>
       <c r="S41" s="25">
@@ -4578,40 +4627,40 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="25">
         <v>38</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="25">
         <v>30</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="25">
         <v>43</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="25">
         <v>63</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="25">
         <v>71</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="25">
         <v>92</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="25">
         <v>123</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="25">
         <v>125</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="25">
         <v>131</v>
       </c>
       <c r="S42" s="25">
@@ -4619,40 +4668,40 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="25">
         <v>39</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="25">
         <v>30</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="25">
         <v>43</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="25">
         <v>63</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="25">
         <v>71</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="25">
         <v>92</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="25">
         <v>123</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="25">
         <v>125</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="25">
         <v>131</v>
       </c>
       <c r="S43" s="25">
@@ -4663,7 +4712,7 @@
       <c r="A44" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="25">
         <v>40</v>
       </c>
       <c r="D44" s="29" t="s">
@@ -4696,68 +4745,68 @@
       <c r="R44" s="29">
         <v>131</v>
       </c>
-      <c r="S44" s="32">
+      <c r="S44" s="29">
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="26">
         <v>41</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="26">
         <v>30</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="26">
         <v>43</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="26">
         <v>63</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="26">
         <v>71</v>
       </c>
-      <c r="O45" s="12">
+      <c r="O45" s="26">
         <v>92</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P45" s="26">
         <v>123</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q45" s="26">
         <v>125</v>
       </c>
-      <c r="R45" s="27">
+      <c r="R45" s="26">
         <v>131</v>
       </c>
-      <c r="S45" s="12">
+      <c r="S45" s="26">
         <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="25">
         <v>42</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4765,7 +4814,7 @@
       <c r="A47" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="25">
         <v>43</v>
       </c>
       <c r="D47" s="29" t="s">
@@ -4782,1051 +4831,1049 @@
       <c r="A48" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="25">
         <v>44</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="25">
         <v>45</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="25">
         <v>46</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G50" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="25">
         <v>47</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="25">
         <v>48</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="26">
         <v>49</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="25">
         <v>50</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="25">
         <v>51</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K55" s="24"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="25">
         <v>52</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="25">
         <v>53</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="25">
         <v>54</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="26">
         <v>55</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="25">
         <v>56</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="26">
         <v>57</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="25">
         <v>58</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="25">
         <v>59</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="25">
         <v>60</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="25">
         <v>61</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="26">
         <v>62</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="25">
         <v>63</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="26">
         <v>64</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G68" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="25">
         <v>65</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="25">
         <v>66</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K70" s="24"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="25">
         <v>67</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="25">
         <v>68</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="25">
         <v>69</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="26">
         <v>70</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="25">
         <v>71</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="26">
         <v>72</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="G76" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="25">
         <v>73</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="25">
         <v>74</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="25">
         <v>75</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="25">
         <v>76</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="25">
         <v>77</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+    <row r="82" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="26">
         <v>78</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="25">
         <v>79</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="26">
         <v>80</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="G84" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="25">
         <v>81</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="25">
         <v>82</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="25">
         <v>83</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="25">
         <v>84</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="25">
         <v>85</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="26">
         <v>86</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="25">
         <v>87</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="26">
         <v>88</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G92" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="25">
         <v>89</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="25">
         <v>9</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93" s="25">
         <v>67</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M93" s="25">
         <v>95</v>
       </c>
-      <c r="N93" s="3">
+      <c r="N93" s="25">
         <v>96</v>
       </c>
-      <c r="O93" s="3">
+      <c r="O93" s="25">
         <v>105</v>
       </c>
       <c r="P93" s="25">
         <v>121</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="Q93" s="25">
         <v>122</v>
       </c>
-      <c r="R93" s="3">
+      <c r="R93" s="25">
         <v>146</v>
       </c>
-      <c r="S93" s="3">
+      <c r="S93" s="25">
         <v>148</v>
       </c>
-      <c r="T93" s="3">
+      <c r="T93" s="25">
         <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="25">
         <v>90</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="25">
         <v>9</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="25">
         <v>67</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="25">
         <v>95</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="25">
         <v>96</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="25">
         <v>105</v>
       </c>
       <c r="P94" s="25">
         <v>121</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="25">
         <v>122</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="25">
         <v>146</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="25">
         <v>148</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="25">
         <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="25">
         <v>91</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="25">
         <v>9</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95" s="25">
         <v>67</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M95" s="25">
         <v>95</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N95" s="25">
         <v>96</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O95" s="25">
         <v>105</v>
       </c>
       <c r="P95" s="25">
         <v>121</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="Q95" s="25">
         <v>122</v>
       </c>
-      <c r="R95" s="3">
+      <c r="R95" s="25">
         <v>146</v>
       </c>
-      <c r="S95" s="3">
+      <c r="S95" s="25">
         <v>148</v>
       </c>
-      <c r="T95" s="3">
+      <c r="T95" s="25">
         <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="25">
         <v>92</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="25">
         <v>9</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96" s="25">
         <v>67</v>
       </c>
-      <c r="M96" s="3">
+      <c r="M96" s="25">
         <v>95</v>
       </c>
-      <c r="N96" s="3">
+      <c r="N96" s="25">
         <v>96</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O96" s="25">
         <v>105</v>
       </c>
-      <c r="P96" s="3">
+      <c r="P96" s="25">
         <v>121</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="Q96" s="25">
         <v>122</v>
       </c>
-      <c r="R96" s="3">
+      <c r="R96" s="25">
         <v>146</v>
       </c>
-      <c r="S96" s="3">
+      <c r="S96" s="25">
         <v>148</v>
       </c>
-      <c r="T96" s="3">
+      <c r="T96" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="26">
         <v>93</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K97" s="12">
+      <c r="K97" s="26">
         <v>9</v>
       </c>
-      <c r="L97" s="12">
+      <c r="L97" s="26">
         <v>67</v>
       </c>
-      <c r="M97" s="12">
+      <c r="M97" s="26">
         <v>95</v>
       </c>
-      <c r="N97" s="12">
+      <c r="N97" s="26">
         <v>96</v>
       </c>
-      <c r="O97" s="12">
+      <c r="O97" s="26">
         <v>105</v>
       </c>
-      <c r="P97" s="12">
+      <c r="P97" s="26">
         <v>121</v>
       </c>
-      <c r="Q97" s="12">
+      <c r="Q97" s="26">
         <v>122</v>
       </c>
-      <c r="R97" s="12">
+      <c r="R97" s="26">
         <v>146</v>
       </c>
-      <c r="S97" s="12">
+      <c r="S97" s="26">
         <v>148</v>
       </c>
-      <c r="T97" s="12">
+      <c r="T97" s="26">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="25">
         <v>94</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="25">
         <v>37</v>
       </c>
     </row>
@@ -5834,7 +5881,7 @@
       <c r="A99" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="25">
         <v>95</v>
       </c>
       <c r="D99" s="29" t="s">
@@ -5851,7 +5898,7 @@
       <c r="A100" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="25">
         <v>96</v>
       </c>
       <c r="D100" s="29" t="s">
@@ -5871,7 +5918,7 @@
       <c r="A101" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="25">
         <v>97</v>
       </c>
       <c r="D101" s="29" t="s">
@@ -5891,7 +5938,7 @@
       <c r="A102" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="25">
         <v>98</v>
       </c>
       <c r="D102" s="29" t="s">
@@ -5911,7 +5958,7 @@
       <c r="A103" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="25">
         <v>99</v>
       </c>
       <c r="D103" s="29" t="s">
@@ -5931,7 +5978,7 @@
       <c r="A104" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="25">
         <v>100</v>
       </c>
       <c r="D104" s="29" t="s">
@@ -5947,26 +5994,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="26">
         <v>101</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F105" s="12" t="s">
+      <c r="F105" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G105" s="12" t="s">
+      <c r="G105" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K105" s="12">
+      <c r="K105" s="26">
         <v>37</v>
       </c>
     </row>
@@ -5974,7 +6021,7 @@
       <c r="A106" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="25">
         <v>102</v>
       </c>
       <c r="D106" s="29" t="s">
@@ -5989,22 +6036,22 @@
       <c r="K106" s="29">
         <v>4</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106" s="25">
         <v>8</v>
       </c>
       <c r="M106" s="29">
         <v>13</v>
       </c>
-      <c r="N106" s="3">
+      <c r="N106" s="25">
         <v>15</v>
       </c>
-      <c r="O106" s="3">
+      <c r="O106" s="25">
         <v>18</v>
       </c>
-      <c r="P106" s="3">
+      <c r="P106" s="25">
         <v>20</v>
       </c>
-      <c r="Q106" s="3">
+      <c r="Q106" s="25">
         <v>25</v>
       </c>
       <c r="R106" s="29">
@@ -6018,210 +6065,210 @@
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="25">
         <v>103</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="25">
         <v>4</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107" s="25">
         <v>8</v>
       </c>
-      <c r="M107" s="3">
+      <c r="M107" s="25">
         <v>13</v>
       </c>
-      <c r="N107" s="3">
+      <c r="N107" s="25">
         <v>15</v>
       </c>
-      <c r="O107" s="3">
+      <c r="O107" s="25">
         <v>18</v>
       </c>
-      <c r="P107" s="3">
+      <c r="P107" s="25">
         <v>20</v>
       </c>
-      <c r="Q107" s="3">
+      <c r="Q107" s="25">
         <v>25</v>
       </c>
-      <c r="R107" s="3">
+      <c r="R107" s="25">
         <v>38</v>
       </c>
-      <c r="S107" s="3">
+      <c r="S107" s="25">
         <v>39</v>
       </c>
-      <c r="T107" s="3">
+      <c r="T107" s="25">
         <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="25">
         <v>104</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="25">
         <v>4</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108" s="25">
         <v>8</v>
       </c>
-      <c r="M108" s="3">
+      <c r="M108" s="25">
         <v>13</v>
       </c>
-      <c r="N108" s="3">
+      <c r="N108" s="25">
         <v>15</v>
       </c>
-      <c r="O108" s="3">
+      <c r="O108" s="25">
         <v>18</v>
       </c>
-      <c r="P108" s="3">
+      <c r="P108" s="25">
         <v>20</v>
       </c>
-      <c r="Q108" s="3">
+      <c r="Q108" s="25">
         <v>25</v>
       </c>
-      <c r="R108" s="3">
+      <c r="R108" s="25">
         <v>38</v>
       </c>
-      <c r="S108" s="3">
+      <c r="S108" s="25">
         <v>39</v>
       </c>
-      <c r="T108" s="3">
+      <c r="T108" s="25">
         <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="25">
         <v>105</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="25">
         <v>4</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109" s="25">
         <v>8</v>
       </c>
-      <c r="M109" s="3">
+      <c r="M109" s="25">
         <v>13</v>
       </c>
-      <c r="N109" s="3">
+      <c r="N109" s="25">
         <v>15</v>
       </c>
-      <c r="O109" s="3">
+      <c r="O109" s="25">
         <v>18</v>
       </c>
-      <c r="P109" s="3">
+      <c r="P109" s="25">
         <v>20</v>
       </c>
-      <c r="Q109" s="3">
+      <c r="Q109" s="25">
         <v>25</v>
       </c>
-      <c r="R109" s="3">
+      <c r="R109" s="25">
         <v>38</v>
       </c>
-      <c r="S109" s="3">
+      <c r="S109" s="25">
         <v>39</v>
       </c>
-      <c r="T109" s="3">
+      <c r="T109" s="25">
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="26">
         <v>106</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F110" s="12" t="s">
+      <c r="F110" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G110" s="12" t="s">
+      <c r="G110" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="K110" s="12">
+      <c r="K110" s="26">
         <v>4</v>
       </c>
-      <c r="L110" s="12">
+      <c r="L110" s="26">
         <v>8</v>
       </c>
-      <c r="M110" s="12">
+      <c r="M110" s="26">
         <v>13</v>
       </c>
-      <c r="N110" s="12">
+      <c r="N110" s="26">
         <v>15</v>
       </c>
-      <c r="O110" s="12">
+      <c r="O110" s="26">
         <v>18</v>
       </c>
-      <c r="P110" s="12">
+      <c r="P110" s="26">
         <v>20</v>
       </c>
-      <c r="Q110" s="12">
+      <c r="Q110" s="26">
         <v>25</v>
       </c>
-      <c r="R110" s="12">
+      <c r="R110" s="26">
         <v>38</v>
       </c>
-      <c r="S110" s="12">
+      <c r="S110" s="26">
         <v>39</v>
       </c>
-      <c r="T110" s="12">
+      <c r="T110" s="26">
         <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="25">
         <v>107</v>
       </c>
       <c r="D111" s="29" t="s">
@@ -6238,10 +6285,10 @@
       </c>
     </row>
     <row r="112" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="25">
         <v>108</v>
       </c>
       <c r="D112" s="29" t="s">
@@ -6261,10 +6308,10 @@
       </c>
     </row>
     <row r="113" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
+      <c r="A113" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="25">
         <v>109</v>
       </c>
       <c r="D113" s="29" t="s">
@@ -6284,10 +6331,10 @@
       </c>
     </row>
     <row r="114" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="25">
         <v>110</v>
       </c>
       <c r="D114" s="29" t="s">
@@ -6306,223 +6353,223 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="26">
         <v>111</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D115" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F115" s="12" t="s">
+      <c r="F115" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G115" s="12" t="s">
+      <c r="G115" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="H115" s="12" t="s">
+      <c r="H115" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+    <row r="116" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="19">
+      <c r="C116" s="30">
         <v>112</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="F116" s="19" t="s">
+      <c r="F116" s="30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41" t="s">
+    <row r="117" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="19">
+      <c r="C117" s="30">
         <v>113</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F117" s="19" t="s">
+      <c r="F117" s="30" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="25">
         <v>114</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="25">
         <v>115</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="25">
         <v>116</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="25">
         <v>117</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="25">
         <v>118</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="26">
         <v>119</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="F123" s="26" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="25">
         <v>120</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="26">
         <v>121</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="D125" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E125" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="F125" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="G125" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H125" s="12" t="s">
+      <c r="H125" s="26" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6530,7 +6577,7 @@
       <c r="A126" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="25">
         <v>122</v>
       </c>
       <c r="D126" s="29" t="s">
@@ -6543,230 +6590,230 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+    <row r="127" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="26">
         <v>123</v>
       </c>
-      <c r="D127" s="12" t="s">
+      <c r="D127" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="F127" s="26" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="25">
         <v>124</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G128" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="25">
         <v>125</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="25">
         <v>126</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="25">
         <v>127</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G131" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="26">
         <v>128</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E132" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="F132" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H132" s="12" t="s">
+      <c r="H132" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="25">
         <v>129</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I133" s="3" t="s">
+      <c r="I133" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="26">
         <v>130</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F134" s="12" t="s">
+      <c r="F134" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G134" s="12" t="s">
+      <c r="G134" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H134" s="12" t="s">
+      <c r="H134" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I134" s="12" t="s">
+      <c r="I134" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
+    <row r="135" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C135" s="19">
+      <c r="C135" s="30">
         <v>131</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D135" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E135" s="19" t="s">
+      <c r="E135" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F135" s="19" t="s">
+      <c r="F135" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="K135" s="34">
+      <c r="K135" s="30">
         <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>132</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="25" t="s">
         <v>71</v>
       </c>
       <c r="K136" s="25">
@@ -6774,106 +6821,106 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>133</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K137" s="3">
+      <c r="K137" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>134</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="F138" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G138" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K138" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>135</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G139" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K139" s="3">
+      <c r="K139" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+    <row r="140" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C140" s="12">
+      <c r="C140" s="26">
         <v>136</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D140" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E140" s="12" t="s">
+      <c r="E140" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F140" s="12" t="s">
+      <c r="F140" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G140" s="12" t="s">
+      <c r="G140" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H140" s="12" t="s">
+      <c r="H140" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K140" s="12">
+      <c r="K140" s="26">
         <v>2</v>
       </c>
     </row>
@@ -6881,7 +6928,7 @@
       <c r="A141" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>137</v>
       </c>
       <c r="D141" s="29" t="s">
@@ -6890,109 +6937,109 @@
       <c r="E141" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K141" s="32">
+      <c r="K141" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>138</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>139</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="25">
         <v>140</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C145" s="26">
         <v>141</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="D145" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E145" s="12" t="s">
+      <c r="E145" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K145" s="12">
+      <c r="K145" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="25">
         <v>142</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C147" s="12">
+      <c r="C147" s="26">
         <v>143</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E147" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F147" s="26" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7000,7 +7047,7 @@
       <c r="A148" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="25">
         <v>144</v>
       </c>
       <c r="D148" s="29" t="s">
@@ -7015,169 +7062,169 @@
       <c r="G148" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K148" s="32">
+      <c r="K148" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="25">
         <v>145</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G149" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K149" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="25">
         <v>146</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F150" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="G150" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K150" s="3">
+      <c r="K150" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="25">
         <v>147</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="G151" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K151" s="3">
+      <c r="K151" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="25">
         <v>148</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F152" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G152" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152" s="25">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="26">
         <v>149</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="D153" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E153" s="12" t="s">
+      <c r="E153" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="F153" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="K153" s="12">
+      <c r="K153" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="25">
         <v>150</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" s="25" t="s">
         <v>71</v>
       </c>
       <c r="K154" s="25">
         <v>11</v>
       </c>
-      <c r="L154" s="3">
+      <c r="L154" s="25">
         <v>12</v>
       </c>
-      <c r="M154" s="3">
+      <c r="M154" s="25">
         <v>19</v>
       </c>
-      <c r="N154" s="3">
+      <c r="N154" s="25">
         <v>21</v>
       </c>
-      <c r="O154" s="3">
+      <c r="O154" s="25">
         <v>31</v>
       </c>
-      <c r="P154" s="3">
+      <c r="P154" s="25">
         <v>32</v>
       </c>
-      <c r="Q154" s="3">
+      <c r="Q154" s="25">
         <v>33</v>
       </c>
-      <c r="R154" s="3">
+      <c r="R154" s="25">
         <v>41</v>
       </c>
-      <c r="S154" s="3">
+      <c r="S154" s="25">
         <v>42</v>
       </c>
-      <c r="T154" s="3">
+      <c r="T154" s="25">
         <v>45</v>
       </c>
-      <c r="U154" s="3">
+      <c r="U154" s="25">
         <v>93</v>
       </c>
       <c r="V154" s="25">
@@ -7185,52 +7232,52 @@
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="25">
         <v>151</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" s="25" t="s">
         <v>73</v>
       </c>
       <c r="K155" s="25">
         <v>11</v>
       </c>
-      <c r="L155" s="3">
+      <c r="L155" s="25">
         <v>12</v>
       </c>
-      <c r="M155" s="3">
+      <c r="M155" s="25">
         <v>19</v>
       </c>
-      <c r="N155" s="3">
+      <c r="N155" s="25">
         <v>21</v>
       </c>
-      <c r="O155" s="3">
+      <c r="O155" s="25">
         <v>31</v>
       </c>
-      <c r="P155" s="3">
+      <c r="P155" s="25">
         <v>32</v>
       </c>
-      <c r="Q155" s="3">
+      <c r="Q155" s="25">
         <v>33</v>
       </c>
-      <c r="R155" s="3">
+      <c r="R155" s="25">
         <v>41</v>
       </c>
-      <c r="S155" s="3">
+      <c r="S155" s="25">
         <v>42</v>
       </c>
-      <c r="T155" s="3">
+      <c r="T155" s="25">
         <v>45</v>
       </c>
-      <c r="U155" s="3">
+      <c r="U155" s="25">
         <v>93</v>
       </c>
       <c r="V155" s="25">
@@ -7238,52 +7285,52 @@
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="25">
         <v>152</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="25" t="s">
         <v>75</v>
       </c>
       <c r="K156" s="25">
         <v>11</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L156" s="25">
         <v>12</v>
       </c>
-      <c r="M156" s="3">
+      <c r="M156" s="25">
         <v>19</v>
       </c>
-      <c r="N156" s="3">
+      <c r="N156" s="25">
         <v>21</v>
       </c>
-      <c r="O156" s="3">
+      <c r="O156" s="25">
         <v>31</v>
       </c>
-      <c r="P156" s="3">
+      <c r="P156" s="25">
         <v>32</v>
       </c>
-      <c r="Q156" s="3">
+      <c r="Q156" s="25">
         <v>33</v>
       </c>
-      <c r="R156" s="3">
+      <c r="R156" s="25">
         <v>41</v>
       </c>
-      <c r="S156" s="3">
+      <c r="S156" s="25">
         <v>42</v>
       </c>
-      <c r="T156" s="3">
+      <c r="T156" s="25">
         <v>45</v>
       </c>
-      <c r="U156" s="3">
+      <c r="U156" s="25">
         <v>93</v>
       </c>
       <c r="V156" s="25">
@@ -7291,52 +7338,52 @@
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="25">
         <v>153</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F157" s="25" t="s">
         <v>77</v>
       </c>
       <c r="K157" s="25">
         <v>11</v>
       </c>
-      <c r="L157" s="3">
+      <c r="L157" s="25">
         <v>12</v>
       </c>
-      <c r="M157" s="3">
+      <c r="M157" s="25">
         <v>19</v>
       </c>
-      <c r="N157" s="3">
+      <c r="N157" s="25">
         <v>21</v>
       </c>
-      <c r="O157" s="3">
+      <c r="O157" s="25">
         <v>31</v>
       </c>
-      <c r="P157" s="3">
+      <c r="P157" s="25">
         <v>32</v>
       </c>
-      <c r="Q157" s="3">
+      <c r="Q157" s="25">
         <v>33</v>
       </c>
-      <c r="R157" s="3">
+      <c r="R157" s="25">
         <v>41</v>
       </c>
-      <c r="S157" s="3">
+      <c r="S157" s="25">
         <v>42</v>
       </c>
-      <c r="T157" s="3">
+      <c r="T157" s="25">
         <v>45</v>
       </c>
-      <c r="U157" s="3">
+      <c r="U157" s="25">
         <v>93</v>
       </c>
       <c r="V157" s="25">
@@ -7344,1923 +7391,2211 @@
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="25">
         <v>154</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F158" s="25" t="s">
         <v>79</v>
       </c>
       <c r="K158" s="25">
         <v>11</v>
       </c>
-      <c r="L158" s="3">
+      <c r="L158" s="25">
         <v>12</v>
       </c>
-      <c r="M158" s="3">
+      <c r="M158" s="25">
         <v>19</v>
       </c>
-      <c r="N158" s="3">
+      <c r="N158" s="25">
         <v>21</v>
       </c>
-      <c r="O158" s="3">
+      <c r="O158" s="25">
         <v>31</v>
       </c>
-      <c r="P158" s="3">
+      <c r="P158" s="25">
         <v>32</v>
       </c>
-      <c r="Q158" s="3">
+      <c r="Q158" s="25">
         <v>33</v>
       </c>
-      <c r="R158" s="3">
+      <c r="R158" s="25">
         <v>41</v>
       </c>
-      <c r="S158" s="3">
+      <c r="S158" s="25">
         <v>42</v>
       </c>
-      <c r="T158" s="3">
+      <c r="T158" s="25">
         <v>45</v>
       </c>
-      <c r="U158" s="3">
+      <c r="U158" s="25">
         <v>93</v>
       </c>
       <c r="V158" s="25">
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
+    <row r="159" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="26">
         <v>155</v>
       </c>
-      <c r="D159" s="12" t="s">
+      <c r="D159" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E159" s="12" t="s">
+      <c r="E159" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="K159" s="27">
+      <c r="K159" s="26">
         <v>11</v>
       </c>
-      <c r="L159" s="12">
+      <c r="L159" s="26">
         <v>12</v>
       </c>
-      <c r="M159" s="12">
+      <c r="M159" s="26">
         <v>19</v>
       </c>
-      <c r="N159" s="12">
+      <c r="N159" s="26">
         <v>21</v>
       </c>
-      <c r="O159" s="12">
+      <c r="O159" s="26">
         <v>31</v>
       </c>
-      <c r="P159" s="12">
+      <c r="P159" s="26">
         <v>32</v>
       </c>
-      <c r="Q159" s="12">
+      <c r="Q159" s="26">
         <v>33</v>
       </c>
-      <c r="R159" s="12">
+      <c r="R159" s="26">
         <v>41</v>
       </c>
-      <c r="S159" s="12">
+      <c r="S159" s="26">
         <v>42</v>
       </c>
-      <c r="T159" s="12">
+      <c r="T159" s="26">
         <v>45</v>
       </c>
-      <c r="U159" s="12">
+      <c r="U159" s="26">
         <v>93</v>
       </c>
-      <c r="V159" s="27">
+      <c r="V159" s="26">
         <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="25">
         <v>156</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="F160" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G160" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K160" s="24"/>
-    </row>
-    <row r="161" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="12" t="s">
+    </row>
+    <row r="161" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="26">
         <v>157</v>
       </c>
-      <c r="D161" s="12" t="s">
+      <c r="D161" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E161" s="12" t="s">
+      <c r="E161" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F161" s="12" t="s">
+      <c r="F161" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G161" s="12" t="s">
+      <c r="G161" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="K161" s="26"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+    </row>
+    <row r="162" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="C162" s="29">
+        <v>158</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E162" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K162" s="29">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="C163" s="25">
+        <v>159</v>
+      </c>
+      <c r="D163" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E163" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F163" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G163" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K163" s="29">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="C164" s="29">
+        <v>160</v>
+      </c>
+      <c r="D164" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E164" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G164" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K164" s="29">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="C165" s="29">
+        <v>161</v>
+      </c>
+      <c r="D165" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E165" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F165" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G165" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K165" s="29">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="C166" s="25">
+        <v>162</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E166" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F166" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G166" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K166" s="29">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="C167" s="26">
+        <v>163</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F167" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G167" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K167" s="26">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="C168" s="30">
+        <v>164</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E168" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F168" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G168" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H168" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K168" s="30">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C162" s="3">
-        <v>158</v>
-      </c>
-      <c r="D162" s="3" t="s">
+      <c r="C169" s="25">
+        <v>165</v>
+      </c>
+      <c r="D169" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E169" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F169" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K162" s="25">
+      <c r="K169" s="29">
         <v>60</v>
       </c>
-      <c r="L162" s="3">
+      <c r="L169" s="29">
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C163" s="3">
-        <v>159</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="C170" s="29">
+        <v>166</v>
+      </c>
+      <c r="D170" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E170" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F170" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K163" s="3">
+      <c r="K170" s="25">
         <v>60</v>
       </c>
-      <c r="L163" s="3">
+      <c r="L170" s="25">
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C171" s="29">
+        <v>167</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F171" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K171" s="25">
+        <v>60</v>
+      </c>
+      <c r="L171" s="25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C172" s="25">
+        <v>168</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K172" s="25">
+        <v>60</v>
+      </c>
+      <c r="L172" s="25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173" s="26">
+        <v>169</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F173" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K173" s="26">
+        <v>60</v>
+      </c>
+      <c r="L173" s="26">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" s="29">
+        <v>170</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" s="26">
+        <v>171</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F175" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G175" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" s="29">
+        <v>172</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K176" s="25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A177" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" s="29">
+        <v>173</v>
+      </c>
+      <c r="D177" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F177" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K177" s="25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A178" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C178" s="25">
+        <v>174</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F178" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K178" s="25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A179" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" s="29">
+        <v>175</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F179" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K179" s="25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="26">
+        <v>176</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F180" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K180" s="26">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A181" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C181" s="25">
+        <v>177</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G181" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="26">
+        <v>178</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G182" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="C183" s="30">
+        <v>179</v>
+      </c>
+      <c r="D183" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F183" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="K183" s="30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A184" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" s="25">
+        <v>180</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K184" s="25">
+        <v>100</v>
+      </c>
+      <c r="L184" s="25">
+        <v>101</v>
+      </c>
+      <c r="M184" s="25">
+        <v>102</v>
+      </c>
+      <c r="N184" s="25">
+        <v>104</v>
+      </c>
+      <c r="O184" s="25">
         <v>110</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F164" s="3" t="s">
+      <c r="P184" s="25">
+        <v>113</v>
+      </c>
+      <c r="Q184" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A185" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C185" s="29">
+        <v>181</v>
+      </c>
+      <c r="D185" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E185" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K185" s="25">
+        <v>100</v>
+      </c>
+      <c r="L185" s="25">
+        <v>101</v>
+      </c>
+      <c r="M185" s="25">
+        <v>102</v>
+      </c>
+      <c r="N185" s="25">
+        <v>104</v>
+      </c>
+      <c r="O185" s="25">
+        <v>110</v>
+      </c>
+      <c r="P185" s="25">
+        <v>113</v>
+      </c>
+      <c r="Q185" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A186" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C186" s="29">
+        <v>182</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K186" s="25">
+        <v>100</v>
+      </c>
+      <c r="L186" s="25">
+        <v>101</v>
+      </c>
+      <c r="M186" s="25">
+        <v>102</v>
+      </c>
+      <c r="N186" s="25">
+        <v>104</v>
+      </c>
+      <c r="O186" s="25">
+        <v>110</v>
+      </c>
+      <c r="P186" s="25">
+        <v>113</v>
+      </c>
+      <c r="Q186" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A187" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C187" s="25">
+        <v>183</v>
+      </c>
+      <c r="D187" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E187" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K164" s="3">
-        <v>60</v>
-      </c>
-      <c r="L164" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C165" s="3">
-        <v>161</v>
-      </c>
-      <c r="D165" s="3" t="s">
+      <c r="K187" s="25">
+        <v>100</v>
+      </c>
+      <c r="L187" s="25">
+        <v>101</v>
+      </c>
+      <c r="M187" s="25">
+        <v>102</v>
+      </c>
+      <c r="N187" s="25">
+        <v>104</v>
+      </c>
+      <c r="O187" s="25">
         <v>110</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F165" s="3" t="s">
+      <c r="P187" s="25">
+        <v>113</v>
+      </c>
+      <c r="Q187" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A188" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C188" s="29">
+        <v>184</v>
+      </c>
+      <c r="D188" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E188" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K165" s="3">
-        <v>60</v>
-      </c>
-      <c r="L165" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C166" s="12">
-        <v>162</v>
-      </c>
-      <c r="D166" s="12" t="s">
+      <c r="K188" s="25">
+        <v>100</v>
+      </c>
+      <c r="L188" s="25">
+        <v>101</v>
+      </c>
+      <c r="M188" s="25">
+        <v>102</v>
+      </c>
+      <c r="N188" s="25">
+        <v>104</v>
+      </c>
+      <c r="O188" s="25">
         <v>110</v>
       </c>
-      <c r="E166" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F166" s="12" t="s">
+      <c r="P188" s="25">
+        <v>113</v>
+      </c>
+      <c r="Q188" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C189" s="26">
+        <v>185</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E189" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K166" s="12">
-        <v>60</v>
-      </c>
-      <c r="L166" s="12">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C167" s="3">
-        <v>163</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="K189" s="26">
+        <v>100</v>
+      </c>
+      <c r="L189" s="26">
+        <v>101</v>
+      </c>
+      <c r="M189" s="26">
+        <v>102</v>
+      </c>
+      <c r="N189" s="26">
+        <v>104</v>
+      </c>
+      <c r="O189" s="26">
         <v>110</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F167" s="3" t="s">
+      <c r="P189" s="26">
+        <v>113</v>
+      </c>
+      <c r="Q189" s="26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A190" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C190" s="25">
+        <v>186</v>
+      </c>
+      <c r="D190" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E190" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="F190" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C191" s="26">
+        <v>187</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F191" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C168" s="12">
-        <v>164</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F168" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G168" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C169" s="3">
-        <v>165</v>
-      </c>
-      <c r="D169" s="3" t="s">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A192" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="29">
+        <v>188</v>
+      </c>
+      <c r="D192" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E192" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F192" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="G192" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H192" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K169" s="25">
-        <v>112</v>
-      </c>
-      <c r="L169" s="24"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C170" s="3">
-        <v>166</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K170" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C171" s="3">
-        <v>167</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K171" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C172" s="3">
-        <v>168</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K172" s="25">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C173" s="12">
-        <v>169</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F173" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K173" s="12">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C174" s="3">
-        <v>170</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C175" s="12">
-        <v>171</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E175" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F175" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G175" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K175" s="27"/>
-    </row>
-    <row r="176" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="C176" s="19">
-        <v>172</v>
-      </c>
-      <c r="D176" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E176" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F176" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="K176" s="34">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C177" s="3">
-        <v>173</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K177" s="3">
-        <v>100</v>
-      </c>
-      <c r="L177" s="3">
-        <v>101</v>
-      </c>
-      <c r="M177" s="3">
-        <v>102</v>
-      </c>
-      <c r="N177" s="3">
-        <v>104</v>
-      </c>
-      <c r="O177" s="3">
-        <v>110</v>
-      </c>
-      <c r="P177" s="25">
-        <v>113</v>
-      </c>
-      <c r="Q177" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C178" s="3">
-        <v>174</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K178" s="3">
-        <v>100</v>
-      </c>
-      <c r="L178" s="3">
-        <v>101</v>
-      </c>
-      <c r="M178" s="3">
-        <v>102</v>
-      </c>
-      <c r="N178" s="3">
-        <v>104</v>
-      </c>
-      <c r="O178" s="3">
-        <v>110</v>
-      </c>
-      <c r="P178" s="25">
-        <v>113</v>
-      </c>
-      <c r="Q178" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C179" s="3">
-        <v>175</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K179" s="3">
-        <v>100</v>
-      </c>
-      <c r="L179" s="3">
-        <v>101</v>
-      </c>
-      <c r="M179" s="3">
-        <v>102</v>
-      </c>
-      <c r="N179" s="3">
-        <v>104</v>
-      </c>
-      <c r="O179" s="3">
-        <v>110</v>
-      </c>
-      <c r="P179" s="25">
-        <v>113</v>
-      </c>
-      <c r="Q179" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C180" s="3">
-        <v>176</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K180" s="3">
-        <v>100</v>
-      </c>
-      <c r="L180" s="3">
-        <v>101</v>
-      </c>
-      <c r="M180" s="3">
-        <v>102</v>
-      </c>
-      <c r="N180" s="3">
-        <v>104</v>
-      </c>
-      <c r="O180" s="3">
-        <v>110</v>
-      </c>
-      <c r="P180" s="25">
-        <v>113</v>
-      </c>
-      <c r="Q180" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C181" s="3">
-        <v>177</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K181" s="3">
-        <v>100</v>
-      </c>
-      <c r="L181" s="3">
-        <v>101</v>
-      </c>
-      <c r="M181" s="3">
-        <v>102</v>
-      </c>
-      <c r="N181" s="3">
-        <v>104</v>
-      </c>
-      <c r="O181" s="3">
-        <v>110</v>
-      </c>
-      <c r="P181" s="25">
-        <v>113</v>
-      </c>
-      <c r="Q181" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C182" s="12">
-        <v>178</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K182" s="12">
-        <v>100</v>
-      </c>
-      <c r="L182" s="12">
-        <v>101</v>
-      </c>
-      <c r="M182" s="12">
-        <v>102</v>
-      </c>
-      <c r="N182" s="12">
-        <v>104</v>
-      </c>
-      <c r="O182" s="12">
-        <v>110</v>
-      </c>
-      <c r="P182" s="27">
-        <v>113</v>
-      </c>
-      <c r="Q182" s="12">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A183" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C183" s="3">
-        <v>179</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C184" s="12">
-        <v>180</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F184" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C185" s="3">
-        <v>181</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K185" s="3">
+      <c r="K192" s="25">
         <v>153</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C186" s="3">
-        <v>182</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K186" s="3">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C187" s="3">
-        <v>183</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K187" s="3">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C188" s="3">
-        <v>184</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K188" s="3">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C189" s="3">
-        <v>185</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K189" s="3">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C190" s="12">
-        <v>186</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G190" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K190" s="12">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C191" s="3">
-        <v>187</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C192" s="12">
-        <v>188</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F192" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G192" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H192" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I192" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C193" s="3">
+        <v>233</v>
+      </c>
+      <c r="C193" s="25">
         <v>189</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E193" s="3" t="s">
+      <c r="D193" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F193" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F193" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>71</v>
+      <c r="G193" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="K193" s="25">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C194" s="3">
+        <v>234</v>
+      </c>
+      <c r="C194" s="29">
         <v>190</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="3" t="s">
+      <c r="D194" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F194" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F194" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K194" s="3">
-        <v>129</v>
+      <c r="G194" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H194" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K194" s="25">
+        <v>153</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C195" s="3">
+        <v>235</v>
+      </c>
+      <c r="C195" s="29">
         <v>191</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="3" t="s">
+      <c r="D195" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F195" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F195" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K195" s="3">
-        <v>129</v>
+      <c r="G195" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H195" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K195" s="25">
+        <v>153</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C196" s="25">
+        <v>192</v>
+      </c>
+      <c r="D196" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F196" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G196" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H196" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K196" s="25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C197" s="26">
+        <v>193</v>
+      </c>
+      <c r="D197" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F197" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G197" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K197" s="26">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C198" s="29">
+        <v>194</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F198" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G198" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H198" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I198" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C199" s="26">
+        <v>195</v>
+      </c>
+      <c r="D199" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F199" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G199" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H199" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I199" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C200" s="29">
+        <v>196</v>
+      </c>
+      <c r="D200" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E200" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F200" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G200" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K200" s="25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C201" s="29">
+        <v>197</v>
+      </c>
+      <c r="D201" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F201" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G201" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K201" s="25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C202" s="25">
+        <v>198</v>
+      </c>
+      <c r="D202" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E202" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F202" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G202" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K202" s="25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C196" s="3">
-        <v>192</v>
-      </c>
-      <c r="D196" s="3" t="s">
+      <c r="C203" s="29">
+        <v>199</v>
+      </c>
+      <c r="D203" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E203" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="F203" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G203" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K196" s="3">
+      <c r="K203" s="25">
         <v>129</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C197" s="3">
-        <v>193</v>
-      </c>
-      <c r="D197" s="3" t="s">
+      <c r="C204" s="29">
+        <v>200</v>
+      </c>
+      <c r="D204" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E204" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F204" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G197" s="3" t="s">
+      <c r="G204" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K197" s="3">
+      <c r="K204" s="25">
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
+    <row r="205" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C198" s="12">
-        <v>194</v>
-      </c>
-      <c r="D198" s="12" t="s">
+      <c r="C205" s="26">
+        <v>201</v>
+      </c>
+      <c r="D205" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E198" s="12" t="s">
+      <c r="E205" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F198" s="12" t="s">
+      <c r="F205" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="K198" s="12">
+      <c r="K205" s="26">
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C199" s="3">
-        <v>195</v>
-      </c>
-      <c r="D199" s="3" t="s">
+      <c r="C206" s="29">
+        <v>202</v>
+      </c>
+      <c r="D206" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E206" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F206" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G199" s="3" t="s">
+      <c r="G206" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H199" s="3" t="s">
+      <c r="H206" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
+    <row r="207" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C200" s="12">
-        <v>196</v>
-      </c>
-      <c r="D200" s="12" t="s">
+      <c r="C207" s="26">
+        <v>203</v>
+      </c>
+      <c r="D207" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E200" s="12" t="s">
+      <c r="E207" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F200" s="12" t="s">
+      <c r="F207" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G200" s="12" t="s">
+      <c r="G207" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H200" s="12" t="s">
+      <c r="H207" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="C201" s="3">
-        <v>197</v>
-      </c>
-      <c r="D201" s="3" t="s">
+      <c r="C208" s="25">
+        <v>204</v>
+      </c>
+      <c r="D208" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E208" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="F208" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G201" s="3" t="s">
+      <c r="G208" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H201" s="3" t="s">
+      <c r="H208" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K201" s="3">
+      <c r="K208" s="25">
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C202" s="3">
-        <v>198</v>
-      </c>
-      <c r="D202" s="3" t="s">
+      <c r="C209" s="29">
+        <v>205</v>
+      </c>
+      <c r="D209" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E209" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F209" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G202" s="3" t="s">
+      <c r="G209" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H202" s="3" t="s">
+      <c r="H209" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K202" s="3">
+      <c r="K209" s="25">
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C203" s="3">
-        <v>199</v>
-      </c>
-      <c r="D203" s="3" t="s">
+      <c r="C210" s="29">
+        <v>206</v>
+      </c>
+      <c r="D210" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E210" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="F210" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G203" s="3" t="s">
+      <c r="G210" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H203" s="3" t="s">
+      <c r="H210" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K203" s="25">
+      <c r="K210" s="25">
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C204" s="3">
-        <v>200</v>
-      </c>
-      <c r="D204" s="3" t="s">
+      <c r="C211" s="25">
+        <v>207</v>
+      </c>
+      <c r="D211" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E211" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="F211" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G204" s="3" t="s">
+      <c r="G211" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H204" s="3" t="s">
+      <c r="H211" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K204" s="3">
+      <c r="K211" s="25">
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="C205" s="3">
-        <v>201</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="C212" s="29">
+        <v>208</v>
+      </c>
+      <c r="D212" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E212" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F205" s="3" t="s">
+      <c r="F212" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G205" s="3" t="s">
+      <c r="G212" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H205" s="3" t="s">
+      <c r="H212" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K205" s="3">
+      <c r="K212" s="25">
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="27" t="s">
+    <row r="213" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C206" s="12">
-        <v>202</v>
-      </c>
-      <c r="D206" s="12" t="s">
+      <c r="C213" s="26">
+        <v>209</v>
+      </c>
+      <c r="D213" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E206" s="12" t="s">
+      <c r="E213" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F206" s="12" t="s">
+      <c r="F213" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G206" s="12" t="s">
+      <c r="G213" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K206" s="12">
+      <c r="K213" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C207" s="3">
-        <v>203</v>
-      </c>
-      <c r="D207" s="3" t="s">
+      <c r="C214" s="25">
+        <v>210</v>
+      </c>
+      <c r="D214" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E214" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="F214" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G207" s="3" t="s">
+      <c r="G214" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H207" s="3" t="s">
+      <c r="H214" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K207" s="25">
+      <c r="K214" s="25">
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C208" s="3">
-        <v>204</v>
-      </c>
-      <c r="D208" s="3" t="s">
+      <c r="C215" s="29">
+        <v>211</v>
+      </c>
+      <c r="D215" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E215" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="F215" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G208" s="3" t="s">
+      <c r="G215" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H208" s="3" t="s">
+      <c r="H215" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K208" s="3">
+      <c r="K215" s="25">
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C209" s="3">
-        <v>205</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="C216" s="29">
+        <v>212</v>
+      </c>
+      <c r="D216" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E216" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="F216" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G209" s="3" t="s">
+      <c r="G216" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H209" s="3" t="s">
+      <c r="H216" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K209" s="3">
+      <c r="K216" s="25">
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C210" s="3">
-        <v>206</v>
-      </c>
-      <c r="D210" s="3" t="s">
+      <c r="C217" s="25">
+        <v>213</v>
+      </c>
+      <c r="D217" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E217" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F217" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G210" s="3" t="s">
+      <c r="G217" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H210" s="3" t="s">
+      <c r="H217" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K210" s="3">
+      <c r="K217" s="25">
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="12" t="s">
+    <row r="218" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C211" s="12">
-        <v>207</v>
-      </c>
-      <c r="D211" s="12" t="s">
+      <c r="C218" s="26">
+        <v>214</v>
+      </c>
+      <c r="D218" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E211" s="12" t="s">
+      <c r="E218" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F211" s="12" t="s">
+      <c r="F218" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G211" s="12" t="s">
+      <c r="G218" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H211" s="12" t="s">
+      <c r="H218" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K211" s="12">
+      <c r="K218" s="26">
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C212" s="3">
-        <v>208</v>
-      </c>
-      <c r="D212" s="29" t="s">
+      <c r="C219" s="29">
+        <v>215</v>
+      </c>
+      <c r="D219" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E212" s="29" t="s">
+      <c r="E219" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F212" s="29" t="s">
+      <c r="F219" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G212" s="3" t="s">
+      <c r="G219" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H212" s="3" t="s">
+      <c r="H219" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I212" s="3" t="s">
+      <c r="I219" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="213" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
+    <row r="220" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C213" s="12">
-        <v>209</v>
-      </c>
-      <c r="D213" s="12" t="s">
+      <c r="C220" s="26">
+        <v>216</v>
+      </c>
+      <c r="D220" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E213" s="12" t="s">
+      <c r="E220" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F213" s="12" t="s">
+      <c r="F220" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G213" s="12" t="s">
+      <c r="G220" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H213" s="12" t="s">
+      <c r="H220" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I213" s="12" t="s">
+      <c r="I220" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="214" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="19" t="s">
+    <row r="221" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C214" s="19">
-        <v>210</v>
-      </c>
-      <c r="D214" s="19" t="s">
+      <c r="C221" s="30">
+        <v>217</v>
+      </c>
+      <c r="D221" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E214" s="19" t="s">
+      <c r="E221" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F214" s="19" t="s">
+      <c r="F221" s="30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="29" t="s">
+    <row r="222" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="C215" s="3">
-        <v>211</v>
-      </c>
-      <c r="D215" s="29" t="s">
+      <c r="C222" s="29">
+        <v>218</v>
+      </c>
+      <c r="D222" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E215" s="29" t="s">
+      <c r="E222" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="K215" s="29">
+      <c r="K222" s="29">
         <v>76</v>
       </c>
-      <c r="L215" s="29">
+      <c r="L222" s="29">
         <v>159</v>
       </c>
     </row>
-    <row r="216" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="29" t="s">
+    <row r="223" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C216" s="3">
-        <v>212</v>
-      </c>
-      <c r="D216" s="29" t="s">
+      <c r="C223" s="25">
+        <v>219</v>
+      </c>
+      <c r="D223" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E216" s="29" t="s">
+      <c r="E223" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F216" s="29" t="s">
+      <c r="F223" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K216" s="29">
+      <c r="K223" s="29">
         <v>76</v>
       </c>
-      <c r="L216" s="29">
+      <c r="L223" s="29">
         <v>159</v>
       </c>
-      <c r="Z216" s="30"/>
-      <c r="AA216" s="30"/>
-    </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C217" s="3">
-        <v>213</v>
-      </c>
-      <c r="D217" s="3" t="s">
+      <c r="C224" s="29">
+        <v>220</v>
+      </c>
+      <c r="D224" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E224" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F224" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K217" s="3">
+      <c r="K224" s="25">
         <v>76</v>
       </c>
-      <c r="L217" s="29">
+      <c r="L224" s="29">
         <v>159</v>
       </c>
-      <c r="Z217" s="24"/>
-      <c r="AA217" s="24"/>
-    </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="C218" s="3">
-        <v>214</v>
-      </c>
-      <c r="D218" s="3" t="s">
+      <c r="C225" s="29">
+        <v>221</v>
+      </c>
+      <c r="D225" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E225" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F225" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K218" s="3">
+      <c r="K225" s="25">
         <v>76</v>
       </c>
-      <c r="L218" s="29">
+      <c r="L225" s="29">
         <v>159</v>
       </c>
-      <c r="Z218" s="24"/>
-      <c r="AA218" s="24"/>
-    </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="C219" s="3">
-        <v>215</v>
-      </c>
-      <c r="D219" s="3" t="s">
+      <c r="C226" s="25">
+        <v>222</v>
+      </c>
+      <c r="D226" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E219" s="3" t="s">
+      <c r="E226" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F226" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K219" s="3">
+      <c r="K226" s="25">
         <v>76</v>
       </c>
-      <c r="L219" s="29">
+      <c r="L226" s="29">
         <v>159</v>
       </c>
-      <c r="Z219" s="24"/>
-      <c r="AA219" s="24"/>
-    </row>
-    <row r="220" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="12" t="s">
+    </row>
+    <row r="227" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C220" s="12">
-        <v>216</v>
-      </c>
-      <c r="D220" s="12" t="s">
+      <c r="C227" s="26">
+        <v>223</v>
+      </c>
+      <c r="D227" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E220" s="12" t="s">
+      <c r="E227" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F220" s="12" t="s">
+      <c r="F227" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K220" s="12">
+      <c r="K227" s="26">
         <v>76</v>
       </c>
-      <c r="L220" s="12">
+      <c r="L227" s="26">
         <v>159</v>
-      </c>
-      <c r="Z220" s="26"/>
-      <c r="AA220" s="26"/>
-    </row>
-    <row r="221" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="29" t="s">
-        <v>510</v>
-      </c>
-      <c r="C221" s="3">
-        <v>217</v>
-      </c>
-      <c r="D221" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F221" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="K221" s="29">
-        <v>74</v>
-      </c>
-      <c r="L221" s="29">
-        <v>75</v>
-      </c>
-      <c r="Z221" s="30"/>
-      <c r="AA221" s="30"/>
-    </row>
-    <row r="222" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="C222" s="3">
-        <v>218</v>
-      </c>
-      <c r="D222" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E222" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F222" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G222" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K222" s="32">
-        <v>74</v>
-      </c>
-      <c r="L222" s="32">
-        <v>75</v>
-      </c>
-      <c r="Z222" s="30"/>
-      <c r="AA222" s="30"/>
-    </row>
-    <row r="223" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C223" s="12">
-        <v>219</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E223" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F223" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G223" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K223" s="27">
-        <v>74</v>
-      </c>
-      <c r="L223" s="27">
-        <v>75</v>
-      </c>
-      <c r="Z223" s="26"/>
-      <c r="AA223" s="26"/>
-    </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C224" s="3">
-        <v>220</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K224" s="29">
-        <v>79</v>
-      </c>
-      <c r="L224" s="3">
-        <v>89</v>
-      </c>
-      <c r="M224" s="29">
-        <v>91</v>
-      </c>
-      <c r="N224" s="3">
-        <v>124</v>
-      </c>
-      <c r="O224" s="3">
-        <v>126</v>
-      </c>
-      <c r="P224" s="29">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C225" s="3">
-        <v>221</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K225" s="29">
-        <v>79</v>
-      </c>
-      <c r="L225" s="3">
-        <v>89</v>
-      </c>
-      <c r="M225" s="29">
-        <v>91</v>
-      </c>
-      <c r="N225" s="3">
-        <v>124</v>
-      </c>
-      <c r="O225" s="3">
-        <v>126</v>
-      </c>
-      <c r="P225" s="29">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C226" s="3">
-        <v>222</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K226" s="29">
-        <v>79</v>
-      </c>
-      <c r="L226" s="3">
-        <v>89</v>
-      </c>
-      <c r="M226" s="29">
-        <v>91</v>
-      </c>
-      <c r="N226" s="3">
-        <v>124</v>
-      </c>
-      <c r="O226" s="3">
-        <v>126</v>
-      </c>
-      <c r="P226" s="29">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C227" s="3">
-        <v>223</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K227" s="29">
-        <v>79</v>
-      </c>
-      <c r="L227" s="3">
-        <v>89</v>
-      </c>
-      <c r="M227" s="29">
-        <v>91</v>
-      </c>
-      <c r="N227" s="3">
-        <v>124</v>
-      </c>
-      <c r="O227" s="3">
-        <v>126</v>
-      </c>
-      <c r="P227" s="29">
-        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="C228" s="3">
+        <v>510</v>
+      </c>
+      <c r="C228" s="29">
         <v>224</v>
       </c>
       <c r="D228" s="29" t="s">
         <v>93</v>
       </c>
       <c r="E228" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F228" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K228" s="29">
+        <v>74</v>
+      </c>
+      <c r="L228" s="29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C229" s="25">
+        <v>225</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E229" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F229" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G229" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K229" s="29">
+        <v>74</v>
+      </c>
+      <c r="L229" s="29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C230" s="26">
+        <v>226</v>
+      </c>
+      <c r="D230" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E230" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F230" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G230" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K230" s="26">
+        <v>74</v>
+      </c>
+      <c r="L230" s="26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C231" s="29">
+        <v>227</v>
+      </c>
+      <c r="D231" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E231" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F228" s="29" t="s">
+      <c r="F231" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K231" s="29">
         <v>79</v>
       </c>
-      <c r="K228" s="29">
+      <c r="L231" s="25">
+        <v>89</v>
+      </c>
+      <c r="M231" s="29">
+        <v>91</v>
+      </c>
+      <c r="N231" s="25">
+        <v>124</v>
+      </c>
+      <c r="O231" s="25">
+        <v>126</v>
+      </c>
+      <c r="P231" s="29"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C232" s="25">
+        <v>228</v>
+      </c>
+      <c r="D232" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E232" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F232" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K232" s="29">
         <v>79</v>
       </c>
-      <c r="L228" s="29">
+      <c r="L232" s="25">
         <v>89</v>
       </c>
-      <c r="M228" s="29">
+      <c r="M232" s="29">
         <v>91</v>
       </c>
-      <c r="N228" s="29">
+      <c r="N232" s="25">
         <v>124</v>
       </c>
-      <c r="O228" s="29">
+      <c r="O232" s="25">
         <v>126</v>
       </c>
-      <c r="P228" s="29">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="12" t="s">
+      <c r="P232" s="29"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C233" s="29">
+        <v>229</v>
+      </c>
+      <c r="D233" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E233" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F233" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K233" s="29">
+        <v>79</v>
+      </c>
+      <c r="L233" s="25">
+        <v>89</v>
+      </c>
+      <c r="M233" s="29">
+        <v>91</v>
+      </c>
+      <c r="N233" s="25">
+        <v>124</v>
+      </c>
+      <c r="O233" s="25">
+        <v>126</v>
+      </c>
+      <c r="P233" s="29"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C234" s="29">
+        <v>230</v>
+      </c>
+      <c r="D234" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E234" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F234" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K234" s="29">
+        <v>79</v>
+      </c>
+      <c r="L234" s="25">
+        <v>89</v>
+      </c>
+      <c r="M234" s="29">
+        <v>91</v>
+      </c>
+      <c r="N234" s="25">
+        <v>124</v>
+      </c>
+      <c r="O234" s="25">
+        <v>126</v>
+      </c>
+      <c r="P234" s="29"/>
+    </row>
+    <row r="235" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C235" s="25">
+        <v>231</v>
+      </c>
+      <c r="D235" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E235" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F235" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K235" s="29">
+        <v>79</v>
+      </c>
+      <c r="L235" s="29">
+        <v>89</v>
+      </c>
+      <c r="M235" s="29">
+        <v>91</v>
+      </c>
+      <c r="N235" s="29">
+        <v>124</v>
+      </c>
+      <c r="O235" s="29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C229" s="12">
-        <v>225</v>
-      </c>
-      <c r="D229" s="12" t="s">
+      <c r="C236" s="26">
+        <v>232</v>
+      </c>
+      <c r="D236" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E229" s="12" t="s">
+      <c r="E236" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F229" s="12" t="s">
+      <c r="F236" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G229" s="12" t="s">
+      <c r="G236" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K229" s="12">
+      <c r="K236" s="26">
         <v>79</v>
       </c>
-      <c r="L229" s="12">
+      <c r="L236" s="26">
         <v>89</v>
       </c>
-      <c r="M229" s="12">
+      <c r="M236" s="26">
         <v>91</v>
       </c>
-      <c r="N229" s="12">
+      <c r="N236" s="26">
         <v>124</v>
       </c>
-      <c r="O229" s="12">
+      <c r="O236" s="26">
         <v>126</v>
       </c>
-      <c r="P229" s="12">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C230" s="3">
-        <v>226</v>
-      </c>
-      <c r="D230" s="25" t="s">
+      <c r="C237" s="29">
+        <v>233</v>
+      </c>
+      <c r="D237" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E230" s="25" t="s">
+      <c r="E237" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F230" s="25" t="s">
+      <c r="F237" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="G237" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="12" t="s">
+    <row r="238" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C231" s="12">
-        <v>227</v>
-      </c>
-      <c r="D231" s="27" t="s">
+      <c r="C238" s="26">
+        <v>234</v>
+      </c>
+      <c r="D238" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E231" s="27" t="s">
+      <c r="E238" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F231" s="27" t="s">
+      <c r="F238" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G231" s="12" t="s">
+      <c r="G238" s="26" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="C239" s="25">
+        <v>235</v>
+      </c>
+      <c r="D239" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F239" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="K239" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="C240" s="25">
+        <v>236</v>
+      </c>
+      <c r="D240" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F240" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G240" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K240" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C241" s="25">
+        <v>237</v>
+      </c>
+      <c r="D241" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F241" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G241" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K241" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C242" s="25">
+        <v>238</v>
+      </c>
+      <c r="D242" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F242" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G242" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K242" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="C243" s="25">
+        <v>239</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F243" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G243" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K243" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C244" s="25">
+        <v>240</v>
+      </c>
+      <c r="D244" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F244" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G244" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K244" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="C245" s="26">
+        <v>241</v>
+      </c>
+      <c r="D245" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F245" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G245" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H245" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K245" s="26">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -9347,27 +9682,27 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
       <c r="AB2" s="1" t="s">
         <v>279</v>
       </c>
@@ -23190,8 +23525,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92b3409ea0638059f9fd8d7ade9df832">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b08d302f03e228be09f4a35f7dd0cbe" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -23263,8 +23604,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -23353,7 +23694,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -23362,36 +23703,30 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0237252E-FC05-4638-957E-DFC5F523EE84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA3979B-E9B3-4FAF-A833-2AE832094A56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3775E85C-9975-4D85-8291-A5C265F3735A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF84023-544F-4D3D-9631-4647CEF9D4A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA3979B-E9B3-4FAF-A833-2AE832094A56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>